--- a/data/trans_orig/P1406-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1406-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>4862</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1696</v>
+        <v>1637</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11255</v>
+        <v>11337</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006910871220162775</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002411465726846932</v>
+        <v>0.002326723803218749</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01599906975357953</v>
+        <v>0.01611574768384514</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -763,19 +763,19 @@
         <v>8686</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4065</v>
+        <v>4236</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16446</v>
+        <v>16640</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01246085195647471</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005831009182863355</v>
+        <v>0.00607688763638321</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02359332487719807</v>
+        <v>0.02387153257628091</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -784,19 +784,19 @@
         <v>13547</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7236</v>
+        <v>8202</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21485</v>
+        <v>22746</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009673143012865183</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005166852343239915</v>
+        <v>0.005856445826617641</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01534084876840091</v>
+        <v>0.01624090662429577</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>698607</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>692214</v>
+        <v>692132</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>701773</v>
+        <v>701832</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9930891287798372</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9840009302464202</v>
+        <v>0.9838842523161548</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9975885342731531</v>
+        <v>0.9976732761967813</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>642</v>
@@ -834,19 +834,19 @@
         <v>688364</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>680604</v>
+        <v>680410</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>692985</v>
+        <v>692814</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9875391480435253</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9764066751228023</v>
+        <v>0.9761284674237187</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9941689908171386</v>
+        <v>0.9939231123636167</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1311</v>
@@ -855,19 +855,19 @@
         <v>1386972</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1379034</v>
+        <v>1377773</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1393283</v>
+        <v>1392317</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9903268569871349</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9846591512315988</v>
+        <v>0.9837590933757039</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.99483314765676</v>
+        <v>0.9941435541733823</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>12994</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6633</v>
+        <v>6584</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21534</v>
+        <v>22678</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01276517956855447</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006516147673574101</v>
+        <v>0.006468084981546359</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0211546112426155</v>
+        <v>0.02227847686468727</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -980,19 +980,19 @@
         <v>13002</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6684</v>
+        <v>6674</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22439</v>
+        <v>21985</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01265016091536464</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006502926967471242</v>
+        <v>0.006493600731789555</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02183245592471587</v>
+        <v>0.02139094387731676</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -1001,19 +1001,19 @@
         <v>25996</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16364</v>
+        <v>17232</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38082</v>
+        <v>38316</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01270739352512339</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00799887307506111</v>
+        <v>0.008423522189576708</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0186155142946753</v>
+        <v>0.01872982810611017</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1004953</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>996413</v>
+        <v>995269</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1011314</v>
+        <v>1011363</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9872348204314455</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9788453887573845</v>
+        <v>0.9777215231353127</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9934838523264259</v>
+        <v>0.9935319150184536</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>925</v>
@@ -1051,19 +1051,19 @@
         <v>1014789</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1005352</v>
+        <v>1005806</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1021107</v>
+        <v>1021117</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9873498390846354</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9781675440752853</v>
+        <v>0.9786090561226833</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9934970730325289</v>
+        <v>0.9935063992682104</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1849</v>
@@ -1072,19 +1072,19 @@
         <v>2019742</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2007656</v>
+        <v>2007422</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2029374</v>
+        <v>2028506</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9872926064748766</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9813844857053247</v>
+        <v>0.9812701718938899</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9920011269249388</v>
+        <v>0.9915764778104232</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>11620</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6209</v>
+        <v>6285</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20012</v>
+        <v>20193</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01533789911587596</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008195786453783186</v>
+        <v>0.008296088165369265</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02641402989888911</v>
+        <v>0.02665367705072419</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1197,19 +1197,19 @@
         <v>8330</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4086</v>
+        <v>3199</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17341</v>
+        <v>17230</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.010717765723991</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005258078289949018</v>
+        <v>0.00411682237071417</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02231349882907849</v>
+        <v>0.02217034599727161</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1218,19 +1218,19 @@
         <v>19950</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11874</v>
+        <v>12633</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30948</v>
+        <v>31078</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01299840612255521</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007736305795757386</v>
+        <v>0.008231355830603538</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02016429873001176</v>
+        <v>0.02024868486487716</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>746003</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>737611</v>
+        <v>737430</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>751414</v>
+        <v>751338</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9846621008841241</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9735859701011108</v>
+        <v>0.9733463229492758</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9918042135462168</v>
+        <v>0.9917039118346307</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>698</v>
@@ -1268,19 +1268,19 @@
         <v>768844</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>759833</v>
+        <v>759944</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>773088</v>
+        <v>773975</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.989282234276009</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9776865011709216</v>
+        <v>0.9778296540027296</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.994741921710051</v>
+        <v>0.9958831776292859</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1376</v>
@@ -1289,19 +1289,19 @@
         <v>1514847</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1503849</v>
+        <v>1503719</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1522923</v>
+        <v>1522164</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9870015938774448</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9798357012699882</v>
+        <v>0.9797513151351226</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9922636942042419</v>
+        <v>0.9917686441693965</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>11096</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5193</v>
+        <v>5983</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20152</v>
+        <v>22296</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01170768919991772</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005479293382810663</v>
+        <v>0.006312488886126994</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02126364896568594</v>
+        <v>0.02352541560546581</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1414,19 +1414,19 @@
         <v>13102</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6980</v>
+        <v>7139</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22259</v>
+        <v>23216</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01245570043131422</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006635993006805629</v>
+        <v>0.006786641161430954</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02116104602780378</v>
+        <v>0.02207035030690658</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -1435,19 +1435,19 @@
         <v>24198</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15330</v>
+        <v>15436</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36203</v>
+        <v>36209</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0121011768371365</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00766617715900186</v>
+        <v>0.007719540349505567</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01810456313807521</v>
+        <v>0.0181076246567713</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>936643</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>927587</v>
+        <v>925443</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>942546</v>
+        <v>941756</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9882923108000823</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9787363510343141</v>
+        <v>0.9764745843945339</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9945207066171893</v>
+        <v>0.993687511113873</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>991</v>
@@ -1485,19 +1485,19 @@
         <v>1038799</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1029642</v>
+        <v>1028685</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1044921</v>
+        <v>1044762</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9875442995686857</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9788389539721962</v>
+        <v>0.9779296496930932</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9933640069931943</v>
+        <v>0.9932133588385688</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1891</v>
@@ -1506,19 +1506,19 @@
         <v>1975442</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1963437</v>
+        <v>1963431</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1984310</v>
+        <v>1984204</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9878988231628635</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9818954368619248</v>
+        <v>0.9818923753432287</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9923338228409981</v>
+        <v>0.9922804596504944</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>40572</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29365</v>
+        <v>29120</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57124</v>
+        <v>54358</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0118397048036285</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008569222295987935</v>
+        <v>0.008497753419120577</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01666987874346042</v>
+        <v>0.01586261225554083</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -1631,19 +1631,19 @@
         <v>43119</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30838</v>
+        <v>30813</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59298</v>
+        <v>56819</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01213289531726442</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008677112081815323</v>
+        <v>0.008670066365026851</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0166853382604414</v>
+        <v>0.01598769493993047</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>77</v>
@@ -1652,19 +1652,19 @@
         <v>83691</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>66788</v>
+        <v>66138</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>102704</v>
+        <v>104469</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01198896994547672</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009567584699024911</v>
+        <v>0.009474400150950135</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01471262135815735</v>
+        <v>0.01496537995243023</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3386207</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3369655</v>
+        <v>3372421</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3397414</v>
+        <v>3397659</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9881602951963715</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9833301212565394</v>
+        <v>0.9841373877444589</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9914307777040121</v>
+        <v>0.9915022465808794</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3256</v>
@@ -1702,19 +1702,19 @@
         <v>3510797</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3494618</v>
+        <v>3497097</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3523078</v>
+        <v>3523103</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9878671046827355</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9833146617395585</v>
+        <v>0.9840123050600695</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9913228879181847</v>
+        <v>0.9913299336349731</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6427</v>
@@ -1723,19 +1723,19 @@
         <v>6897003</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6877990</v>
+        <v>6876225</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6913906</v>
+        <v>6914556</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9880110300545233</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9852873786418428</v>
+        <v>0.9850346200475698</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9904324153009751</v>
+        <v>0.9905255998490499</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>3928</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1012</v>
+        <v>1047</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9671</v>
+        <v>9921</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005821053536518014</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001499752455265414</v>
+        <v>0.001551567126818185</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01433183980924791</v>
+        <v>0.01470203817225828</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2088,19 +2088,19 @@
         <v>5956</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13757</v>
+        <v>12105</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008851922984620465</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00310835207522033</v>
+        <v>0.003099095799353727</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0204455462511775</v>
+        <v>0.01799105607526154</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -2109,19 +2109,19 @@
         <v>9884</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4891</v>
+        <v>4900</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18152</v>
+        <v>16868</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007334283092530368</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00362933587621375</v>
+        <v>0.003636091929710311</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01346926512273106</v>
+        <v>0.01251652975750652</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>670872</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>665129</v>
+        <v>664879</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>673788</v>
+        <v>673753</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.994178946463482</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9856681601907519</v>
+        <v>0.9852979618277418</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9985002475447345</v>
+        <v>0.9984484328731817</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>660</v>
@@ -2159,19 +2159,19 @@
         <v>666883</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>659082</v>
+        <v>660734</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>670748</v>
+        <v>670754</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9911480770153795</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9795544537488191</v>
+        <v>0.9820089439247385</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9968916479247796</v>
+        <v>0.9969009042006463</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1308</v>
@@ -2180,19 +2180,19 @@
         <v>1337755</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1329487</v>
+        <v>1330771</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1342748</v>
+        <v>1342739</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9926657169074696</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9865307348772689</v>
+        <v>0.9874834702424934</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9963706641237863</v>
+        <v>0.9963639080702896</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>6371</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2195</v>
+        <v>2415</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13820</v>
+        <v>14146</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00623138699373536</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002146644457243173</v>
+        <v>0.002361907874634579</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01351695249594849</v>
+        <v>0.01383549579994494</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -2305,19 +2305,19 @@
         <v>10177</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4556</v>
+        <v>4790</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19353</v>
+        <v>18682</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009757997313672901</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004368316420050601</v>
+        <v>0.004592459110611481</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01855686019754643</v>
+        <v>0.01791349761508274</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -2326,19 +2326,19 @@
         <v>16548</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9204</v>
+        <v>9517</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28159</v>
+        <v>27941</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008012178845674877</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004456517427147852</v>
+        <v>0.004607981882545267</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01363393095356225</v>
+        <v>0.0135283155032241</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>1016060</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1008611</v>
+        <v>1008285</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1020236</v>
+        <v>1020016</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9937686130062646</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9864830475040516</v>
+        <v>0.9861645042000549</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9978533555427569</v>
+        <v>0.9976380921253654</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>968</v>
@@ -2376,19 +2376,19 @@
         <v>1032736</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1023560</v>
+        <v>1024231</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1038357</v>
+        <v>1038123</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9902420026863271</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9814431398024536</v>
+        <v>0.9820865023849172</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9956316835799494</v>
+        <v>0.9954075408893885</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1914</v>
@@ -2397,19 +2397,19 @@
         <v>2048796</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2037185</v>
+        <v>2037403</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2056140</v>
+        <v>2055827</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9919878211543252</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9863660690464379</v>
+        <v>0.986471684496776</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9955434825728522</v>
+        <v>0.9953920181174547</v>
       </c>
     </row>
     <row r="9">
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7141</v>
+        <v>6631</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002628911256007564</v>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.00940179968540095</v>
+        <v>0.008730062930848962</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -2522,19 +2522,19 @@
         <v>7930</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3817</v>
+        <v>3159</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16464</v>
+        <v>15636</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01010141472979611</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004862344083263069</v>
+        <v>0.004024507070283742</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02097333589566811</v>
+        <v>0.01991827022686623</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -2543,19 +2543,19 @@
         <v>9927</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4387</v>
+        <v>4719</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18738</v>
+        <v>19069</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006426746656680709</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002840589987024598</v>
+        <v>0.003055226099922477</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01213127350752883</v>
+        <v>0.01234591033930918</v>
       </c>
     </row>
     <row r="11">
@@ -2572,7 +2572,7 @@
         <v>757555</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>752411</v>
+        <v>752921</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>759552</v>
@@ -2581,7 +2581,7 @@
         <v>0.9973710887439924</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9905982003145989</v>
+        <v>0.991269937069151</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2593,19 +2593,19 @@
         <v>777081</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>768547</v>
+        <v>769375</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>781194</v>
+        <v>781852</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9898985852702039</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9790266641043319</v>
+        <v>0.9800817297731338</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.995137655916737</v>
+        <v>0.9959754929297162</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1423</v>
@@ -2614,19 +2614,19 @@
         <v>1534636</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1525825</v>
+        <v>1525494</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1540176</v>
+        <v>1539844</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9935732533433193</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.987868726492471</v>
+        <v>0.9876540896606909</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.997159410012975</v>
+        <v>0.9969447739000775</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>2953</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7835</v>
+        <v>9967</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003149909032870642</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.000957256222020069</v>
+        <v>0.0009621031961438632</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.008356346839494629</v>
+        <v>0.01063084264861761</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -2739,19 +2739,19 @@
         <v>10204</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4958</v>
+        <v>5104</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18522</v>
+        <v>19710</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009775653813645634</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004750524072045213</v>
+        <v>0.004890256803230842</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01774474239021314</v>
+        <v>0.01888354214103712</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -2760,19 +2760,19 @@
         <v>13157</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6863</v>
+        <v>7345</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21895</v>
+        <v>23494</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006640371225901726</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00346371836934846</v>
+        <v>0.00370716703248502</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01105074819894605</v>
+        <v>0.01185763668562271</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>934614</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>929732</v>
+        <v>927600</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>936670</v>
+        <v>936665</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9968500909671294</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9916436531605055</v>
+        <v>0.9893691573513835</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.99904274377798</v>
+        <v>0.9990378968038561</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>950</v>
@@ -2810,19 +2810,19 @@
         <v>1033575</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1025257</v>
+        <v>1024069</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1038821</v>
+        <v>1038675</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9902243461863544</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9822552576097869</v>
+        <v>0.9811164578589627</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9952494759279548</v>
+        <v>0.995109743196769</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1879</v>
@@ -2831,19 +2831,19 @@
         <v>1968189</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1959451</v>
+        <v>1957852</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1974483</v>
+        <v>1974001</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9933596287740982</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.988949251801054</v>
+        <v>0.9881423633143772</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9965362816306516</v>
+        <v>0.9962928329675149</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>15249</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8985</v>
+        <v>8798</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26159</v>
+        <v>25469</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004492540558024594</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002647089184754867</v>
+        <v>0.002591952322043402</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007706775582614255</v>
+        <v>0.007503496251335963</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -2956,19 +2956,19 @@
         <v>34266</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23359</v>
+        <v>24728</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49204</v>
+        <v>49067</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00966725887452965</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006590253592379292</v>
+        <v>0.006976462182061841</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01388156574530091</v>
+        <v>0.01384294555964022</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -2977,19 +2977,19 @@
         <v>49515</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35122</v>
+        <v>35621</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>65888</v>
+        <v>65566</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007135902855843116</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005061583059749334</v>
+        <v>0.005133551164219857</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009495495391490583</v>
+        <v>0.009449122752126898</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3379101</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3368191</v>
+        <v>3368881</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3385365</v>
+        <v>3385552</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9955074594419754</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9922932244173858</v>
+        <v>0.9924965037486642</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9973529108152454</v>
+        <v>0.9974080476779567</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3307</v>
@@ -3027,19 +3027,19 @@
         <v>3510276</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3495338</v>
+        <v>3495475</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3521183</v>
+        <v>3519814</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9903327411254703</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9861184342546989</v>
+        <v>0.9861570544403597</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9934097464076204</v>
+        <v>0.9930235378179378</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6524</v>
@@ -3048,19 +3048,19 @@
         <v>6889377</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6873004</v>
+        <v>6873326</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6903770</v>
+        <v>6903271</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9928640971441569</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9905045046085093</v>
+        <v>0.9905508772478731</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9949384169402506</v>
+        <v>0.9948664488357801</v>
       </c>
     </row>
     <row r="18">
